--- a/file/sample.xlsx
+++ b/file/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danniel.kil/Documents/workspace/automation/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C615A58-9F4C-A948-8251-15D0A4847032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF90720-B81C-C946-9813-76689451BD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="33000" windowHeight="21380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23269,7 +23269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
@@ -23606,7 +23606,7 @@
         <v>132</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">

--- a/file/sample.xlsx
+++ b/file/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danniel.kil/Documents/workspace/automation/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF90720-B81C-C946-9813-76689451BD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C615A58-9F4C-A948-8251-15D0A4847032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="33000" windowHeight="21380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23269,7 +23269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
@@ -23606,7 +23606,7 @@
         <v>132</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
